--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S10/S10_dampingfactor.xlsx
@@ -14,204 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.011272813050801281</t>
-  </si>
-  <si>
-    <t>0.014900824647310204</t>
-  </si>
-  <si>
-    <t>0.019697261435365376</t>
-  </si>
-  <si>
-    <t>0.026467704207413352</t>
-  </si>
-  <si>
-    <t>0.03615233145552187</t>
-  </si>
-  <si>
-    <t>0.050189818282149336</t>
-  </si>
-  <si>
-    <t>0.06967683292291026</t>
-  </si>
-  <si>
-    <t>0.09832815258976245</t>
-  </si>
-  <si>
-    <t>0.141030861246513</t>
-  </si>
-  <si>
-    <t>0.20227053145556229</t>
-  </si>
-  <si>
-    <t>0.2900956205612735</t>
-  </si>
-  <si>
-    <t>0.40591386995334455</t>
-  </si>
-  <si>
-    <t>0.6204579438526705</t>
-  </si>
-  <si>
-    <t>0.8553354874438049</t>
-  </si>
-  <si>
-    <t>1.2811450309771746</t>
-  </si>
-  <si>
-    <t>1.816969651884811</t>
-  </si>
-  <si>
-    <t>2.6050237238046505</t>
-  </si>
-  <si>
-    <t>3.734888766648667</t>
-  </si>
-  <si>
-    <t>5.3546666675192185</t>
-  </si>
-  <si>
-    <t>7.676340098039678</t>
-  </si>
-  <si>
-    <t>11.004058068864708</t>
-  </si>
-  <si>
-    <t>15.774783949319437</t>
-  </si>
-  <si>
-    <t>22.613409421818904</t>
-  </si>
-  <si>
-    <t>32.41506453708463</t>
-  </si>
-  <si>
-    <t>46.464980077370925</t>
-  </si>
-  <si>
-    <t>66.59889108365986</t>
-  </si>
-  <si>
-    <t>95.46275901663594</t>
-  </si>
-  <si>
-    <t>136.82994895654676</t>
-  </si>
-  <si>
-    <t>196.13275515902666</t>
-  </si>
-  <si>
-    <t>281.1030969906126</t>
-  </si>
-  <si>
-    <t>402.89605252014707</t>
-  </si>
-  <si>
-    <t>515.014831043982</t>
-  </si>
-  <si>
-    <t>50.54699387697133</t>
-  </si>
-  <si>
-    <t>39.532815114325125</t>
-  </si>
-  <si>
-    <t>30.63430126855117</t>
-  </si>
-  <si>
-    <t>23.56171912243046</t>
-  </si>
-  <si>
-    <t>18.0367538762285</t>
-  </si>
-  <si>
-    <t>14.111493298282282</t>
-  </si>
-  <si>
-    <t>11.078520267212442</t>
-  </si>
-  <si>
-    <t>8.624282759705116</t>
-  </si>
-  <si>
-    <t>6.906848792112215</t>
-  </si>
-  <si>
-    <t>5.583570031238962</t>
-  </si>
-  <si>
-    <t>4.537408789028024</t>
-  </si>
-  <si>
-    <t>3.8153337254081694</t>
-  </si>
-  <si>
-    <t>3.1377103562861093</t>
-  </si>
-  <si>
-    <t>2.748967633844642</t>
-  </si>
-  <si>
-    <t>2.332279784367899</t>
-  </si>
-  <si>
-    <t>2.0246638196992954</t>
-  </si>
-  <si>
-    <t>1.7754240989905712</t>
-  </si>
-  <si>
-    <t>1.5552439288980897</t>
-  </si>
-  <si>
-    <t>1.3704421138355636</t>
-  </si>
-  <si>
-    <t>1.2287662693896644</t>
-  </si>
-  <si>
-    <t>1.1152194848867145</t>
-  </si>
-  <si>
-    <t>1.0058534526823504</t>
-  </si>
-  <si>
-    <t>0.9110038454315437</t>
-  </si>
-  <si>
-    <t>0.8346152882815785</t>
-  </si>
-  <si>
-    <t>0.7654295871156513</t>
-  </si>
-  <si>
-    <t>0.7160231362226493</t>
-  </si>
-  <si>
-    <t>0.6607887958814501</t>
-  </si>
-  <si>
-    <t>0.616206291145807</t>
-  </si>
-  <si>
-    <t>0.5680792925739214</t>
-  </si>
-  <si>
-    <t>0.5386627744285932</t>
-  </si>
-  <si>
-    <t>0.5075843965202762</t>
-  </si>
-  <si>
-    <t>0.47730281331340707</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -584,259 +392,259 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>0.01127281305080128</v>
+      </c>
+      <c r="B2">
+        <v>50.54699387697133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="A3">
+        <v>0.0149008246473102</v>
+      </c>
+      <c r="B3">
+        <v>39.53281511432512</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="A4">
+        <v>0.01969726143536538</v>
+      </c>
+      <c r="B4">
+        <v>30.63430126855117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="A5">
+        <v>0.02646770420741335</v>
+      </c>
+      <c r="B5">
+        <v>23.56171912243046</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="A6">
+        <v>0.03615233145552187</v>
+      </c>
+      <c r="B6">
+        <v>18.0367538762285</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="A7">
+        <v>0.05018981828214934</v>
+      </c>
+      <c r="B7">
+        <v>14.11149329828228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="A8">
+        <v>0.06967683292291026</v>
+      </c>
+      <c r="B8">
+        <v>11.07852026721244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="A9">
+        <v>0.09832815258976245</v>
+      </c>
+      <c r="B9">
+        <v>8.624282759705116</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="A10">
+        <v>0.141030861246513</v>
+      </c>
+      <c r="B10">
+        <v>6.906848792112215</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="A11">
+        <v>0.2022705314555623</v>
+      </c>
+      <c r="B11">
+        <v>5.583570031238962</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>0.2900956205612735</v>
+      </c>
+      <c r="B12">
+        <v>4.537408789028024</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="A13">
+        <v>0.4059138699533446</v>
+      </c>
+      <c r="B13">
+        <v>3.815333725408169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="A14">
+        <v>0.6204579438526705</v>
+      </c>
+      <c r="B14">
+        <v>3.137710356286109</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15">
+        <v>0.8553354874438049</v>
+      </c>
+      <c r="B15">
+        <v>2.748967633844642</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="A16">
+        <v>1.281145030977175</v>
+      </c>
+      <c r="B16">
+        <v>2.332279784367899</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
+      <c r="A17">
+        <v>1.816969651884811</v>
+      </c>
+      <c r="B17">
+        <v>2.024663819699295</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+      <c r="A18">
+        <v>2.605023723804651</v>
+      </c>
+      <c r="B18">
+        <v>1.775424098990571</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+      <c r="A19">
+        <v>3.734888766648667</v>
+      </c>
+      <c r="B19">
+        <v>1.55524392889809</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="A20">
+        <v>5.354666667519218</v>
+      </c>
+      <c r="B20">
+        <v>1.370442113835564</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
+      <c r="A21">
+        <v>7.676340098039678</v>
+      </c>
+      <c r="B21">
+        <v>1.228766269389664</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="A22">
+        <v>11.00405806886471</v>
+      </c>
+      <c r="B22">
+        <v>1.115219484886715</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
+      <c r="A23">
+        <v>15.77478394931944</v>
+      </c>
+      <c r="B23">
+        <v>1.00585345268235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+      <c r="A24">
+        <v>22.6134094218189</v>
+      </c>
+      <c r="B24">
+        <v>0.9110038454315437</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
+      <c r="A25">
+        <v>32.41506453708463</v>
+      </c>
+      <c r="B25">
+        <v>0.8346152882815785</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
+      <c r="A26">
+        <v>46.46498007737092</v>
+      </c>
+      <c r="B26">
+        <v>0.7654295871156513</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="A27">
+        <v>66.59889108365986</v>
+      </c>
+      <c r="B27">
+        <v>0.7160231362226493</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="A28">
+        <v>95.46275901663594</v>
+      </c>
+      <c r="B28">
+        <v>0.6607887958814501</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
+      <c r="A29">
+        <v>136.8299489565468</v>
+      </c>
+      <c r="B29">
+        <v>0.6162062911458071</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="A30">
+        <v>196.1327551590267</v>
+      </c>
+      <c r="B30">
+        <v>0.5680792925739214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="A31">
+        <v>281.1030969906126</v>
+      </c>
+      <c r="B31">
+        <v>0.5386627744285932</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+      <c r="A32">
+        <v>402.8960525201471</v>
+      </c>
+      <c r="B32">
+        <v>0.5075843965202762</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
+      <c r="A33">
+        <v>515.014831043982</v>
+      </c>
+      <c r="B33">
+        <v>0.4773028133134071</v>
       </c>
     </row>
   </sheetData>
